--- a/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\source\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0015A743-64D0-4406-8BBE-F1C0D8A34E3B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F3AA2-372A-48A0-8BA8-3BBD2E593E60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
-    <sheet name="meta" sheetId="1" r:id="rId1"/>
-    <sheet name="igs" sheetId="8" r:id="rId2"/>
-    <sheet name="profiles" sheetId="2" r:id="rId3"/>
-    <sheet name="resources" sheetId="3" r:id="rId4"/>
-    <sheet name="ops" sheetId="7" r:id="rId5"/>
-    <sheet name="interactions" sheetId="5" r:id="rId6"/>
-    <sheet name="sps" sheetId="4" r:id="rId7"/>
-    <sheet name="rest_interactions" sheetId="9" r:id="rId8"/>
-    <sheet name="sp_combos" sheetId="10" r:id="rId9"/>
+    <sheet name="config" sheetId="11" r:id="rId1"/>
+    <sheet name="meta" sheetId="1" r:id="rId2"/>
+    <sheet name="igs" sheetId="8" r:id="rId3"/>
+    <sheet name="profiles" sheetId="2" r:id="rId4"/>
+    <sheet name="resources" sheetId="3" r:id="rId5"/>
+    <sheet name="ops" sheetId="7" r:id="rId6"/>
+    <sheet name="interactions" sheetId="5" r:id="rId7"/>
+    <sheet name="sps" sheetId="4" r:id="rId8"/>
+    <sheet name="rest_interactions" sheetId="9" r:id="rId9"/>
+    <sheet name="sp_combos" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="155">
   <si>
     <t>Value</t>
   </si>
@@ -222,9 +223,6 @@
     <t>forbidden_s_combos</t>
   </si>
   <si>
-    <t>For general security consideration refer to the [Security and Privacy Considerations](http://build.fhir.org/secpriv-module.html).</t>
-  </si>
-  <si>
     <t>DeviceRequest</t>
   </si>
   <si>
@@ -303,214 +301,262 @@
     <t>http://hl7.org/fhir/OperationDefinition/Measure-data-requirements</t>
   </si>
   <si>
-    <t xml:space="preserve">Da Vinci DEQM Consumer Server **SHALL**
-1. Support at least one transaction defined in the *Framework* Section of  this  Implementation Guide.
+    <t>consumer-server</t>
+  </si>
+  <si>
+    <t>CFQM</t>
+  </si>
+  <si>
+    <t>This profile defines the expected capabilities of a Da Vinci DEQM Consumer Server when conforming to the Da Vinci DEQM Implementation Guide.  Consumers include systems that are primary consumers of patient healthcare information and systems that consume data from Producers.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Consumer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>fhirVersion</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/StructureDefinition/measure-cqfm</t>
+  </si>
+  <si>
+    <t>CQFM Measure</t>
+  </si>
+  <si>
+    <t>Measure</t>
+  </si>
+  <si>
+    <t>versioning_conf</t>
+  </si>
+  <si>
+    <t>readHistory_conf</t>
+  </si>
+  <si>
+    <t>updateCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalCreate</t>
+  </si>
+  <si>
+    <t>conditionalCreate_conf</t>
+  </si>
+  <si>
+    <t>conditionalRead</t>
+  </si>
+  <si>
+    <t>conditionalRead_conf</t>
+  </si>
+  <si>
+    <t>conditionalUpdate</t>
+  </si>
+  <si>
+    <t>conditionalUpdate_conf</t>
+  </si>
+  <si>
+    <t>conditionalDelete</t>
+  </si>
+  <si>
+    <t>conditionalDelete_conf</t>
+  </si>
+  <si>
+    <t>referencePolicy_conf</t>
+  </si>
+  <si>
+    <t>shall_include</t>
+  </si>
+  <si>
+    <t>should_include</t>
+  </si>
+  <si>
+    <t>shall_revinclude</t>
+  </si>
+  <si>
+    <t>should_revinclude</t>
+  </si>
+  <si>
+    <t>conf_Measure</t>
+  </si>
+  <si>
+    <t>conf_MeasureReport</t>
+  </si>
+  <si>
+    <t>SHOULD</t>
+  </si>
+  <si>
+    <t>doc</t>
+  </si>
+  <si>
+    <t>transaction</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>batch</t>
+  </si>
+  <si>
+    <t>search-system</t>
+  </si>
+  <si>
+    <t>history-system</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>base</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>combo</t>
+  </si>
+  <si>
+    <t>combo_conf</t>
+  </si>
+  <si>
+    <t>types</t>
+  </si>
+  <si>
+    <t>fixed_kv</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>imp_note</t>
+  </si>
+  <si>
+    <t>!Encounter</t>
+  </si>
+  <si>
+    <t>class,date</t>
+  </si>
+  <si>
+    <t>date,token</t>
+  </si>
+  <si>
+    <t>1.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationadministration-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/summary-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/datax-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/practitioner-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/indv-measurereport-deqm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationrequest-deqm</t>
+  </si>
+  <si>
+    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/subscription-deqm</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-DEQM/input/</t>
+  </si>
+  <si>
+    <t>packagepath</t>
+  </si>
+  <si>
+    <t>//ERICS-AIR-2/ehaas/Documents/FHIR/Davinci-DEQM/output/</t>
+  </si>
+  <si>
+    <t>pre</t>
+  </si>
+  <si>
+    <t>Da Vinci</t>
+  </si>
+  <si>
+    <t>canon</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>HL7 International - Clinical Quality Information Work Group</t>
+  </si>
+  <si>
+    <t>publishersystem</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>publishervalue</t>
+  </si>
+  <si>
+    <t>http://www.hl7.org/Special/committees/cqi/index.cfm</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
+  </si>
+  <si>
+    <t>For general security consideration refer to the [Security and Privacy Considerations](http://hl7.org/fhir/R4/secpriv-module.html).</t>
+  </si>
+  <si>
+    <t>Da Vinci DEQM Consumer Server **SHALL**
+1. Support the Submit Data transaction defined in the *Framework* Section of  this  Implementation Guide.
 1. Declare a CapabilityStatement identifying the list of supported profiles and operations.
-1. Implement the RESTful behavior according to the FHIR specification including returning the appropriate response classes as described in the FHIR specification for [FHIR RESTful API](http://hl7.org/fhir/STU3/http.html).
-1. Support both xml and json resource formats for all interactions.
-</t>
-  </si>
-  <si>
-    <t>consumer-server</t>
-  </si>
-  <si>
-    <t>CFQM</t>
-  </si>
-  <si>
-    <t>This profile defines the expected capabilities of a Da Vinci DEQM Consumer Server when conforming to the Da Vinci DEQM Implementation Guide.  Consumers include systems that are primary consumers of patient healthcare information and systems that consume data from Producers.  This CapabilityStatement resource includes the complete list of the *recommended*  Da Vinci DEQM profiles and RESTful operations that a Da Vinci DEQM Consumer Server could support. Servers have the option of choosing from this list based on their local use cases and other contextual requirements.</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>fhirVersion</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/us-qicore-3.2.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/StructureDefinition/measure-cqfm</t>
-  </si>
-  <si>
-    <t>CQFM Measure</t>
-  </si>
-  <si>
-    <t>Measure</t>
-  </si>
-  <si>
-    <t>versioning_conf</t>
-  </si>
-  <si>
-    <t>readHistory_conf</t>
-  </si>
-  <si>
-    <t>updateCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalCreate</t>
-  </si>
-  <si>
-    <t>conditionalCreate_conf</t>
-  </si>
-  <si>
-    <t>conditionalRead</t>
-  </si>
-  <si>
-    <t>conditionalRead_conf</t>
-  </si>
-  <si>
-    <t>conditionalUpdate</t>
-  </si>
-  <si>
-    <t>conditionalUpdate_conf</t>
-  </si>
-  <si>
-    <t>conditionalDelete</t>
-  </si>
-  <si>
-    <t>conditionalDelete_conf</t>
-  </si>
-  <si>
-    <t>referencePolicy_conf</t>
-  </si>
-  <si>
-    <t>shall_include</t>
-  </si>
-  <si>
-    <t>should_include</t>
-  </si>
-  <si>
-    <t>shall_revinclude</t>
-  </si>
-  <si>
-    <t>should_revinclude</t>
-  </si>
-  <si>
-    <t>conf_Measure</t>
-  </si>
-  <si>
-    <t>conf_MeasureReport</t>
-  </si>
-  <si>
-    <t>SHOULD</t>
-  </si>
-  <si>
-    <t>doc</t>
-  </si>
-  <si>
-    <t>transaction</t>
-  </si>
-  <si>
-    <t>MAY</t>
-  </si>
-  <si>
-    <t>batch</t>
-  </si>
-  <si>
-    <t>search-system</t>
-  </si>
-  <si>
-    <t>history-system</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>base</t>
-  </si>
-  <si>
-    <t>profile</t>
-  </si>
-  <si>
-    <t>combo</t>
-  </si>
-  <si>
-    <t>combo_conf</t>
-  </si>
-  <si>
-    <t>types</t>
-  </si>
-  <si>
-    <t>fixed_kv</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>imp_note</t>
-  </si>
-  <si>
-    <t>!Encounter</t>
-  </si>
-  <si>
-    <t>class,date</t>
-  </si>
-  <si>
-    <t>date,token</t>
-  </si>
-  <si>
-    <t>4.0.0</t>
-  </si>
-  <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm-1.1.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationadministration-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/summary-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/datax-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/practitioner-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/indv-measurereport-deqm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/medicationrequest-deqm</t>
-  </si>
-  <si>
-    <t>!http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/subscription-deqm</t>
+   - Use the [DEQM Submit Data Update Type Extension](http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-submitDataUpdateType) to indicate whether it whether it supports snapshot or incremental data exchange.
+1. Implement the FHIR RESTful API for operations including returning the appropriate response classes as described in the FHIR specification for [Extended Operations on the RESTful API ](http://hl7.org/fhir/R4/operations.html).
+1. Support both xml and json resource formats for all interactions.</t>
+  </si>
+  <si>
+    <t>**SHALL** Use the [DEQM Submit Data Update Type Extension](http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-submitDataUpdateType) to indicate whether it whether it supports snapshot or incremental data exchange.  **SHALL** reject the submit data payload if there is mismatch between the Consumer’s stated capabilities and the required modifier extension by returning a 400 Bad Request http error code. An OperationOutcome **SHOULD** be returned stating that the [snapshot/incremental] update is not supported .</t>
+  </si>
+  <si>
+    <t>ext</t>
+  </si>
+  <si>
+    <t>{"url":"http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-updateType","valueCode":"incremental"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF032F62"/>
-      <name val="Consolas"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
@@ -574,9 +620,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -586,9 +632,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
@@ -903,11 +948,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39C1180-2B2B-4AEC-99E7-45BE5BECEEF5}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CD1054-537B-4E98-A3AA-4921979072CA}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
+      </c>
+      <c r="D2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J2" s="6" t="str">
+        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,23 +1129,23 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -953,7 +1153,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -972,12 +1172,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -985,49 +1185,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="69" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1036,10 +1194,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="87.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B139EF60-0633-48C5-B394-C56F006BD6B3}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
@@ -1067,170 +1267,170 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -1243,12 +1443,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ACB4CFA-AAEF-4FC6-A49B-107CEE80A317}">
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,61 +1477,61 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H1" t="s">
         <v>38</v>
       </c>
       <c r="I1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" t="s">
         <v>89</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>90</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>91</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>92</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>93</v>
-      </c>
-      <c r="N1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" t="s">
-        <v>95</v>
-      </c>
-      <c r="P1" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>97</v>
       </c>
       <c r="R1" t="s">
         <v>28</v>
       </c>
       <c r="S1" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="X1" t="s">
         <v>48</v>
@@ -1339,7 +1539,7 @@
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1355,15 +1555,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9BD6ECC-0BFD-4409-A93E-9F9ABC9C3BE7}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,9 +1571,11 @@
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1386,36 +1588,45 @@
       <c r="D1" t="s">
         <v>42</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="240" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9E2E280-092F-4777-8984-8212A8DAB750}">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -1444,10 +1655,10 @@
         <v>41</v>
       </c>
       <c r="B1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,10 +1676,10 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1506,7 +1717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7399C2ED-EDEB-47AB-8C1E-1290512B1D2F}">
   <dimension ref="A1:Q2"/>
   <sheetViews>
@@ -1589,7 +1800,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADBB3646-CBB6-4534-A5E3-5BAABA40CEC6}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1611,116 +1822,44 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CD1054-537B-4E98-A3AA-4921979072CA}">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
-        <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
-      </c>
-      <c r="D2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J2" s="7" t="str">
-        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
-        <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80F3AA2-372A-48A0-8BA8-3BBD2E593E60}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE9F992-788E-4927-806E-A77685270F69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-465" windowWidth="19440" windowHeight="15000" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="25200" yWindow="1275" windowWidth="25200" windowHeight="13425" activeTab="9" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -493,9 +493,6 @@
     <t>canon</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/</t>
-  </si>
-  <si>
     <t>publisher</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>{"url":"http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-updateType","valueCode":"incremental"}</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
 </sst>
 </file>
@@ -952,7 +952,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,31 +998,31 @@
         <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>139</v>
+      </c>
+      <c r="B6" t="s">
         <v>140</v>
-      </c>
-      <c r="B6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
         <v>142</v>
-      </c>
-      <c r="B7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" t="s">
         <v>144</v>
-      </c>
-      <c r="B8" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1034,8 +1034,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CD1054-537B-4E98-A3AA-4921979072CA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1080,7 @@
         <v>117</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
+        <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
@@ -1093,7 +1093,7 @@
         <v>119</v>
       </c>
       <c r="J2" s="6" t="str">
-        <f t="shared" ref="J2" si="1">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
+        <f t="shared" ref="J2" si="0">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
         <v>Fetches a bundle of all !Encounter resources matching the specified class and date</v>
       </c>
     </row>
@@ -1145,7 +1145,7 @@
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1177,7 +1177,7 @@
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1185,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1219,7 +1219,7 @@
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1227,7 @@
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -1562,7 +1562,7 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -1592,7 +1592,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1623,10 +1623,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ERICS-AIR-2\ehaas\Documents\FHIR\Davinci-DEQM\input\resources\source-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/input/resources/source-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE9F992-788E-4927-806E-A77685270F69}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F3253-7A32-5A46-BF1A-EFE58DFE016A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25200" yWindow="1275" windowWidth="25200" windowHeight="13425" activeTab="9" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -436,9 +436,6 @@
     <t>date,token</t>
   </si>
   <si>
-    <t>1.1.0</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/devicerequest-deqm</t>
   </si>
   <si>
@@ -518,9 +515,6 @@
   </si>
   <si>
     <t>4.0.1</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|1.1.0</t>
   </si>
   <si>
     <t>For general security consideration refer to the [Security and Privacy Considerations](http://hl7.org/fhir/R4/secpriv-module.html).</t>
@@ -544,6 +538,12 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
+  </si>
+  <si>
+    <t>2.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|2.0.0</t>
   </si>
 </sst>
 </file>
@@ -955,13 +955,13 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -969,60 +969,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B2" t="s">
         <v>132</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>134</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>136</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>138</v>
       </c>
-      <c r="B5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>139</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>141</v>
       </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>143</v>
-      </c>
-      <c r="B8" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1034,13 +1034,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2CD1054-537B-4E98-A3AA-4921979072CA}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1106,17 +1106,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="2" width="95.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1132,23 +1132,23 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1156,15 +1156,15 @@
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1172,20 +1172,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="180" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -1197,16 +1197,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1214,20 +1214,20 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -1243,15 +1243,15 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="98.42578125" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="98.5" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1265,9 +1265,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1279,9 +1279,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1293,9 +1293,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
         <v>66</v>
@@ -1307,9 +1307,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s">
         <v>67</v>
@@ -1321,9 +1321,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1335,9 +1335,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1349,9 +1349,9 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B8" t="s">
         <v>62</v>
@@ -1363,9 +1363,9 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
@@ -1377,9 +1377,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
         <v>68</v>
@@ -1391,9 +1391,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B11" t="s">
         <v>64</v>
@@ -1405,9 +1405,9 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B12" t="s">
         <v>65</v>
@@ -1419,7 +1419,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -1451,19 +1451,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="5" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.1640625" customWidth="1"/>
+    <col min="5" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.5" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -1566,16 +1566,16 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="35.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
+    <col min="5" max="5" width="38.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1592,10 +1592,10 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="240" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>72</v>
       </c>
@@ -1623,10 +1623,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>151</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -1643,14 +1643,14 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1661,17 +1661,17 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1682,32 +1682,32 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1725,21 +1725,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="63.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" customWidth="1"/>
-    <col min="6" max="6" width="22.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="8" width="34.7109375" customWidth="1"/>
-    <col min="9" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" customWidth="1"/>
-    <col min="17" max="17" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="6" max="6" width="22.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="8" max="8" width="34.6640625" customWidth="1"/>
+    <col min="9" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
@@ -1808,13 +1808,13 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>103</v>
       </c>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>105</v>
       </c>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>106</v>
       </c>
@@ -1852,7 +1852,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>107</v>
       </c>

--- a/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/input/resources/source-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2F3253-7A32-5A46-BF1A-EFE58DFE016A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3076F89-E2AD-6F4F-BF6C-BD51F4D51DA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="-47720" yWindow="-7940" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -534,9 +534,6 @@
     <t>ext</t>
   </si>
   <si>
-    <t>{"url":"http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-updateType","valueCode":"incremental"}</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
   <si>
@@ -544,6 +541,9 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|2.0.0</t>
+  </si>
+  <si>
+    <t>{"url":"http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-submitDataUpdateType","valueCode":"incremental"}</t>
   </si>
 </sst>
 </file>
@@ -998,7 +998,7 @@
         <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1137,7 +1137,7 @@
         <v>78</v>
       </c>
       <c r="B3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1161,7 +1161,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1197,7 +1197,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0829A918-BBB6-6345-897C-371FBE4213DF}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -1562,8 +1562,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1626,7 @@
         <v>149</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
+++ b/input/resources/source-data/DEQM_Capability_Statement_Consumer_Server.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehaas/Documents/FHIR/Davinci-DEQM/input/resources/source-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\davinci-deqm\input\resources\source-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3076F89-E2AD-6F4F-BF6C-BD51F4D51DA2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB6E83F6-A386-45ED-B03E-2174EBE7908C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-47720" yWindow="-7940" windowWidth="28800" windowHeight="17540" activeTab="5" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
+    <workbookView xWindow="3312" yWindow="1020" windowWidth="26052" windowHeight="15240" activeTab="1" xr2:uid="{33C1B24A-521B-4A24-AA1F-999D8048322A}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="11" r:id="rId1"/>
@@ -32,7 +32,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -262,9 +265,6 @@
     <t>DEQM DeviceUseStatement Profile</t>
   </si>
   <si>
-    <t>DEQM Organization Profile</t>
-  </si>
-  <si>
     <t>DEQM Coverage Profile</t>
   </si>
   <si>
@@ -454,9 +454,6 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/deviceusestatement-deqm</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/organization-deqm</t>
-  </si>
-  <si>
     <t>http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/coverage-deqm</t>
   </si>
   <si>
@@ -506,12 +503,6 @@
   </si>
   <si>
     <t>http://www.hl7.org/Special/committees/cqi/index.cfm</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|2.0.0</t>
   </si>
   <si>
     <t>4.0.1</t>
@@ -537,20 +528,32 @@
     <t>http://hl7.org/fhir/us/davinci-deqm/</t>
   </si>
   <si>
-    <t>2.0.0</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|2.0.0</t>
-  </si>
-  <si>
     <t>{"url":"http://hl7.org/fhir/us/davinci-deqm/StructureDefinition/extension-submitDataUpdateType","valueCode":"incremental"}</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/ImplementationGuide/hl7.fhir.us.qicore|4.1.1</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/cqfmeasures/ImplementationGuide/hl7.fhir.us.cqfmeasures|3.0.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/qicore/StructureDefinition/qicore-organization</t>
+  </si>
+  <si>
+    <t>QI Core Organization Profile</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/davinci-deqm/ImplementationGuide/hl7.fhir.us.davinci-deqm|3.1.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -585,6 +588,14 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -618,11 +629,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -634,9 +646,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Heading 2" xfId="1" builtinId="17"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -952,16 +966,16 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>44</v>
       </c>
@@ -969,60 +983,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>131</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>133</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>135</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>137</v>
       </c>
-      <c r="B5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>138</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>140</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -1038,59 +1052,59 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C2" t="str">
         <f>"http://hl7.org/fhir/us/core/StructureDefinition/us-core-"&amp;LOWER(B2)</f>
         <v>http://hl7.org/fhir/us/core/StructureDefinition/us-core-!encounter</v>
       </c>
       <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" t="s">
         <v>118</v>
-      </c>
-      <c r="E2" t="s">
-        <v>101</v>
-      </c>
-      <c r="F2" t="s">
-        <v>119</v>
       </c>
       <c r="J2" s="6" t="str">
         <f t="shared" ref="J2" si="0">"Fetches a bundle of all "&amp;B2&amp;" resources matching the specified "&amp;SUBSTITUTE(D2,","," and ")</f>
@@ -1106,17 +1120,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15F3286-55C1-40D0-93FC-C97EF26956B8}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="2" width="95.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="95.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1124,47 +1138,47 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>78</v>
       </c>
-      <c r="B3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>79</v>
-      </c>
       <c r="B4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B6" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1172,23 +1186,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{072F7ED5-74B5-4E34-B0E2-F5AB9D6C9A4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1198,36 +1215,36 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="87.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" t="s">
-        <v>145</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1240,18 +1257,18 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="98.5" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="1" width="98.44140625" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1265,9 +1282,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>58</v>
@@ -1279,9 +1296,9 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>59</v>
@@ -1293,12 +1310,12 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -1307,12 +1324,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -1321,9 +1338,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
@@ -1335,9 +1352,9 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>61</v>
@@ -1349,12 +1366,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>126</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -1363,12 +1380,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -1377,12 +1394,12 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -1391,12 +1408,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -1405,12 +1422,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -1419,18 +1436,18 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" t="s">
         <v>80</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1451,19 +1468,19 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.5" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="2" max="2" width="25.33203125" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" customWidth="1"/>
-    <col min="5" max="6" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+    <col min="5" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>39</v>
       </c>
@@ -1477,75 +1494,75 @@
         <v>26</v>
       </c>
       <c r="E1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
         <v>27</v>
       </c>
       <c r="G1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
         <v>38</v>
       </c>
       <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
         <v>85</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>86</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>87</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>88</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>89</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>90</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>91</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>92</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>93</v>
       </c>
       <c r="R1" t="s">
         <v>28</v>
       </c>
       <c r="S1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="X1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="C3" s="2"/>
     </row>
   </sheetData>
@@ -1562,20 +1579,20 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" customWidth="1"/>
-    <col min="5" max="5" width="38.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="5" max="5" width="38.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>45</v>
       </c>
@@ -1592,41 +1609,41 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="192" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="216" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1643,71 +1660,71 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1725,21 +1742,21 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="63.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="63.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
-    <col min="4" max="5" width="9.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="5" width="9.109375" customWidth="1"/>
     <col min="6" max="6" width="22.6640625" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" customWidth="1"/>
+    <col min="7" max="7" width="9.109375" customWidth="1"/>
     <col min="8" max="8" width="34.6640625" customWidth="1"/>
-    <col min="9" max="15" width="9.1640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="9.109375" customWidth="1"/>
+    <col min="16" max="16" width="14.44140625" customWidth="1"/>
+    <col min="17" max="17" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -1792,7 +1809,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
@@ -1808,13 +1825,13 @@
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>41</v>
       </c>
@@ -1822,42 +1839,42 @@
         <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>103</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>105</v>
       </c>
-      <c r="B3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>106</v>
       </c>
-      <c r="B4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>107</v>
-      </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C5" s="1"/>
     </row>
